--- a/similarities/split_global/harmonic_similarity_timestamps_246.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_246.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,758 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:53.520000', '0:01:01.460000')]</t>
+          <t>('0:00:21.800000', '0:00:30.380000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:57.401473', '0:01:02.625963')]</t>
+          <t>('0:00:55.230000', '0:01:05.420000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=53.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=21.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=57.401473']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E'], ['D', 'A', 'E', 'A'], ['A', 'E', 'A', 'E']]</t>
+          <t>['D', 'G', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E'], ['D', 'A', 'E', 'A'], ['A', 'E', 'A', 'E']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:14.541510'), ('0:00:11.964095', '0:00:18.954550'), ('0:00:00.421247', '0:00:07.505864')]</t>
+          <t>('0:00:04.063000', '0:00:08.399000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:43.076000', '0:00:51.380000'), ('0:00:04.605000', '0:00:16.261000')]</t>
+          <t>('0:00:57.480000', '0:01:08.700000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.964095', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=43.076', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'G']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:28.197000', '0:00:33.046000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:06.427052', '0:01:11.593492')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:39.900000', '0:00:43.620000')]</t>
+          <t>('0:00:36.660000', '0:00:43.940000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:37.840000', '0:00:45.900000')]</t>
+          <t>('0:00:01.440000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=39.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_82</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_60</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min7', 'G:hdim7', 'C:7', 'F:maj6']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min7', 'C:hdim7', 'F:7', 'Bb:maj6']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:41.490000', '0:00:48.470000')]</t>
+          <t>('0:00:00.580000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:49.500000', '0:01:55.550000')]</t>
+          <t>('0:00:07.160000', '0:00:20.240000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-82#t=41.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-60#t=109.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['G', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb']]</t>
+          <t>['A', 'D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:37.200000', '0:00:44.560000')]</t>
+          <t>('0:01:19.178000', '0:01:30.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:36.241000', '0:01:41.882000')]</t>
+          <t>('0:00:26.035941', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=37.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=79.178</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=96.241']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=26.035941</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.073119', '0:00:05.682280')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:45.887000', '0:00:51.649000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=1.073119']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:21.245000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:17.463236')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:22.320000', '0:00:26.180000')]</t>
+          <t>('0:00:37.760000', '0:00:47.420000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:06.360000')]</t>
+          <t>('0:00:13.820000', '0:00:43.980000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=22.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=37.76</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=13.82</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/F#', 'A:min/E']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Bb', 'F:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:02.520000', '0:01:04.940000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:08.624535', '0:00:20.350612')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=62.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=8.624535']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'A']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:45.460000', '0:00:49.620000')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:15.058526', '0:01:45.418616')]</t>
+          <t>('0:00:07.900000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=45.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_233</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000')]</t>
+          <t>('0:00:36.711000', '0:00:39.787000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:57.540000', '0:01:06.900000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-233#t=36.711</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=57.54</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G', 'C/5', 'G']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:57.406099', '0:01:04.464965')]</t>
+          <t>('0:01:03.220000', '0:01:10.460000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:12.743000', '0:00:17.058000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=57.406099']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=63.22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:22.600000', '0:00:29.840000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:54.380000', '0:00:58.560000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=22.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=54.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['B', 'E', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:04.702789', '0:02:10.612267')]</t>
+          <t>('0:03:20.520000', '0:03:23.860000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:11.860000', '0:00:13.900000')]</t>
+          <t>('0:01:03.292358', '0:01:10.397664')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=200.52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=63.292358</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
